--- a/mysite/polls/newtest.xlsx
+++ b/mysite/polls/newtest.xlsx
@@ -19,9 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>sacasasd</t>
+  </si>
+  <si>
+    <t>yhiugiuhi</t>
   </si>
 </sst>
 </file>
@@ -339,17 +342,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G9"/>
+  <dimension ref="G9:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="9" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
         <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
